--- a/input/CellMarkerMAITcells.xlsx
+++ b/input/CellMarkerMAITcells.xlsx
@@ -5,16 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osinnii/Documents/R/scRNAseq analysis/MAIT cell annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osinnii/Documents/Github/scRNA-seq-workflow/scRNA-seq-workflow/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F32A99C-4A50-3E45-B767-7B12FA008A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA443993-6381-3849-9851-240E5F99EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="800" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="760" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="top 44 Garner" sheetId="3" r:id="rId2"/>
+    <sheet name="top 44 Garner ANA Panglao" sheetId="3" r:id="rId2"/>
     <sheet name="overl. In both Garner n Zheng" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="271">
   <si>
     <t>CellMarker</t>
   </si>
@@ -318,9 +318,6 @@
     <t>GRAMD2B</t>
   </si>
   <si>
-    <t>ATF3</t>
-  </si>
-  <si>
     <t>Tmem</t>
   </si>
   <si>
@@ -453,7 +450,391 @@
     <t>GZMH</t>
   </si>
   <si>
-    <t>XCL2</t>
+    <t>Hepatocyte</t>
+  </si>
+  <si>
+    <t>HHEX</t>
+  </si>
+  <si>
+    <t>HNF4A</t>
+  </si>
+  <si>
+    <t>SERPINA1</t>
+  </si>
+  <si>
+    <t>CYP2E1</t>
+  </si>
+  <si>
+    <t>NR1I3</t>
+  </si>
+  <si>
+    <t>SERPINA6</t>
+  </si>
+  <si>
+    <t>SLC10A1</t>
+  </si>
+  <si>
+    <t>ASGR1</t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>APOA1</t>
+  </si>
+  <si>
+    <t>APOA2</t>
+  </si>
+  <si>
+    <t>TTR</t>
+  </si>
+  <si>
+    <t>APOM</t>
+  </si>
+  <si>
+    <t>C4B</t>
+  </si>
+  <si>
+    <t>GCK</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>ATP7B</t>
+  </si>
+  <si>
+    <t>GJB2</t>
+  </si>
+  <si>
+    <t>FGFR4</t>
+  </si>
+  <si>
+    <t>PROX1</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>GRP</t>
+  </si>
+  <si>
+    <t>SLC2A2</t>
+  </si>
+  <si>
+    <t>TFR2</t>
+  </si>
+  <si>
+    <t>KIF13B</t>
+  </si>
+  <si>
+    <t>LIPC</t>
+  </si>
+  <si>
+    <t>VDR</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>G6PC</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>UGT1A1</t>
+  </si>
+  <si>
+    <t>ZHX2</t>
+  </si>
+  <si>
+    <t>FOXA3</t>
+  </si>
+  <si>
+    <t>FOXA2</t>
+  </si>
+  <si>
+    <t>FOXA1</t>
+  </si>
+  <si>
+    <t>CYP7A1</t>
+  </si>
+  <si>
+    <t>CYP3A7</t>
+  </si>
+  <si>
+    <t>CYP3A4</t>
+  </si>
+  <si>
+    <t>CYP2D6</t>
+  </si>
+  <si>
+    <t>CYP2C9</t>
+  </si>
+  <si>
+    <t>CYP2C8</t>
+  </si>
+  <si>
+    <t>CYP2C19</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>KRT19</t>
+  </si>
+  <si>
+    <t>MMP7</t>
+  </si>
+  <si>
+    <t>SSTR2</t>
+  </si>
+  <si>
+    <t>KRT7</t>
+  </si>
+  <si>
+    <t>AGR2</t>
+  </si>
+  <si>
+    <t>ELF3</t>
+  </si>
+  <si>
+    <t>SOX9</t>
+  </si>
+  <si>
+    <t>CFTR</t>
+  </si>
+  <si>
+    <t>HNF1B</t>
+  </si>
+  <si>
+    <t>AQP1</t>
+  </si>
+  <si>
+    <t>TFF1</t>
+  </si>
+  <si>
+    <t>LGALS4</t>
+  </si>
+  <si>
+    <t>CLDN4</t>
+  </si>
+  <si>
+    <t>TFF2</t>
+  </si>
+  <si>
+    <t>SCGB3A1</t>
+  </si>
+  <si>
+    <t>FXYD2</t>
+  </si>
+  <si>
+    <t>LCN2</t>
+  </si>
+  <si>
+    <t>CXCL1</t>
+  </si>
+  <si>
+    <t>CXCL6</t>
+  </si>
+  <si>
+    <t>LGALS2</t>
+  </si>
+  <si>
+    <t>TACSTD2</t>
+  </si>
+  <si>
+    <t>SPP1</t>
+  </si>
+  <si>
+    <t>MUC5B</t>
+  </si>
+  <si>
+    <t>MUC3</t>
+  </si>
+  <si>
+    <t>SLC4A2</t>
+  </si>
+  <si>
+    <t>SCTR</t>
+  </si>
+  <si>
+    <t>KCNN2</t>
+  </si>
+  <si>
+    <t>ITGB4</t>
+  </si>
+  <si>
+    <t>GGT6</t>
+  </si>
+  <si>
+    <t>CCKBR</t>
+  </si>
+  <si>
+    <t>AQP4</t>
+  </si>
+  <si>
+    <t>PIGR</t>
+  </si>
+  <si>
+    <t>GGT1</t>
+  </si>
+  <si>
+    <t>JAG1</t>
+  </si>
+  <si>
+    <t>GPBAR1</t>
+  </si>
+  <si>
+    <t>GGT7</t>
+  </si>
+  <si>
+    <t>ONECUT2</t>
+  </si>
+  <si>
+    <t>ALPL</t>
+  </si>
+  <si>
+    <t>TFF3</t>
+  </si>
+  <si>
+    <t>CD24</t>
+  </si>
+  <si>
+    <t>DEFB1</t>
+  </si>
+  <si>
+    <t>EPCAM</t>
+  </si>
+  <si>
+    <t>Cholangiocytes</t>
+  </si>
+  <si>
+    <t>Kupffer</t>
+  </si>
+  <si>
+    <t>C1QA</t>
+  </si>
+  <si>
+    <t>CLEC4F</t>
+  </si>
+  <si>
+    <t>CD163</t>
+  </si>
+  <si>
+    <t>TIMD4</t>
+  </si>
+  <si>
+    <t>VSIG4</t>
+  </si>
+  <si>
+    <t>CLEC1B</t>
+  </si>
+  <si>
+    <t>GPIHBP1</t>
+  </si>
+  <si>
+    <t>MNDA</t>
+  </si>
+  <si>
+    <t>SLC15A3</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>EAR2</t>
+  </si>
+  <si>
+    <t>HFE</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>ADGRE4</t>
+  </si>
+  <si>
+    <t>CCR5</t>
+  </si>
+  <si>
+    <t>CLEC4E</t>
+  </si>
+  <si>
+    <t>FOLR2</t>
+  </si>
+  <si>
+    <t>PLTP</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>IRF7</t>
+  </si>
+  <si>
+    <t>SPIC</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>C1QC</t>
+  </si>
+  <si>
+    <t>C1QB</t>
+  </si>
+  <si>
+    <t>G6PD</t>
+  </si>
+  <si>
+    <t>LYZ</t>
+  </si>
+  <si>
+    <t>MPO</t>
+  </si>
+  <si>
+    <t>PROK2</t>
+  </si>
+  <si>
+    <t>STARD5</t>
+  </si>
+  <si>
+    <t>MSR1</t>
+  </si>
+  <si>
+    <t>TLR9</t>
+  </si>
+  <si>
+    <t>PPARA</t>
+  </si>
+  <si>
+    <t>TLR4</t>
+  </si>
+  <si>
+    <t>MMP13</t>
+  </si>
+  <si>
+    <t>CD14</t>
+  </si>
+  <si>
+    <t>CHIT1</t>
+  </si>
+  <si>
+    <t>OSM</t>
+  </si>
+  <si>
+    <t>PPARD</t>
+  </si>
+  <si>
+    <t>ADGRE1</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>SLC40A1</t>
   </si>
 </sst>
 </file>
@@ -461,9 +842,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$?-2]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$?-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -483,6 +864,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -506,17 +893,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,19 +1245,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -877,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -885,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -893,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -901,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -909,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -925,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -949,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -957,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -965,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -973,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -981,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -989,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1093,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1157,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1181,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1197,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1205,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1213,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1261,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1277,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1293,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1309,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1317,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1325,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1333,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1341,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1349,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1357,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1381,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1389,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1397,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1405,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1413,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1421,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1429,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1448,373 +1836,765 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B235A-E0F5-1346-815C-EB9180B99628}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,7 +2610,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
     </row>
